--- a/PortMgmt/Python/Inputs/Mutual_Funds.xlsx
+++ b/PortMgmt/Python/Inputs/Mutual_Funds.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="DFA" sheetId="1" r:id="rId1"/>
+    <sheet name="DFA_401K" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -546,7 +546,7 @@
   <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
